--- a/07-07 Approximate Integration/approximate_integration_errors_complete.xlsx
+++ b/07-07 Approximate Integration/approximate_integration_errors_complete.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t xml:space="preserve">Exact value:</t>
   </si>
@@ -76,6 +76,9 @@
     <t xml:space="preserve">Errors</t>
   </si>
   <si>
+    <t xml:space="preserve">Error Ratios</t>
+  </si>
+  <si>
     <t xml:space="preserve">n=20</t>
   </si>
   <si>
@@ -92,11 +95,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -112,6 +116,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -166,7 +175,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -242,7 +251,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -298,6 +307,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -401,6 +411,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -504,6 +515,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -607,6 +619,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -710,6 +723,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -767,11 +781,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="31525510"/>
-        <c:axId val="68459714"/>
+        <c:axId val="46672311"/>
+        <c:axId val="1497934"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="31525510"/>
+        <c:axId val="46672311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,7 +819,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -827,12 +841,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68459714"/>
+        <c:crossAx val="1497934"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68459714"/>
+        <c:axId val="1497934"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,7 +889,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -897,9 +911,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31525510"/>
+        <c:crossAx val="46672311"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -945,7 +959,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1001,6 +1015,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1104,6 +1119,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1207,6 +1223,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1264,11 +1281,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="97085292"/>
-        <c:axId val="71847070"/>
+        <c:axId val="53952990"/>
+        <c:axId val="83967072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97085292"/>
+        <c:axId val="53952990"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,7 +1319,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1324,12 +1341,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71847070"/>
+        <c:crossAx val="83967072"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71847070"/>
+        <c:axId val="83967072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1372,7 +1389,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1394,9 +1411,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97085292"/>
+        <c:crossAx val="53952990"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1446,16 +1463,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>387360</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>457560</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>564840</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1463,8 +1480,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9061920" y="2541600"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="8357400" y="3497760"/>
+        <a:ext cx="5768280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1476,16 +1493,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>416880</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>536040</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>487080</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>605880</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1493,8 +1510,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9091440" y="5964480"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="8398440" y="6958800"/>
+        <a:ext cx="5768280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1518,13 +1535,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2172,9 +2189,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2182,6 +2208,27 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
+      <c r="I17" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -2205,6 +2252,33 @@
       <c r="G18" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">4/I18</f>
+        <v>0.4</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">K12/K11</f>
+        <v>0.517770787495276</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <f aca="false">L12/L11</f>
+        <v>0.484445027723255</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <f aca="false">M12/M11</f>
+        <v>0.250874470387358</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <f aca="false">N12/N11</f>
+        <v>0.250498954503734</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <f aca="false">O12/O11</f>
+        <v>0.0633911169968822</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -2232,6 +2306,33 @@
       <c r="G19" s="0" t="n">
         <f aca="false">IF(E19=1,4*B19,0)</f>
         <v>0</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <f aca="false">4/I19</f>
+        <v>0.2</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <f aca="false">K13/K12</f>
+        <v>0.508610445024925</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <f aca="false">L13/L12</f>
+        <v>0.49194470949541</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <f aca="false">M13/M12</f>
+        <v>0.250218716891459</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <f aca="false">N13/N12</f>
+        <v>0.25012493455746</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <f aca="false">O13/O12</f>
+        <v>0.0627231055369599</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2263,6 +2364,33 @@
         <f aca="false">IF(E20=1,4*B20,0)</f>
         <v>4.88561103264068</v>
       </c>
+      <c r="I20" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">4/I20</f>
+        <v>0.1</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">K14/K13</f>
+        <v>0.504236040622295</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <f aca="false">L14/L13</f>
+        <v>0.495902823192541</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <f aca="false">M14/M13</f>
+        <v>0.250054685438998</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <f aca="false">N14/N13</f>
+        <v>0.25003124590403</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <f aca="false">O14/O13</f>
+        <v>0.0625557907723087</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -2836,7 +2964,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4098,7 +4226,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -6559,10 +6687,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K16:O16"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="A85:G85"/>
